--- a/Software/ZScaler.xlsx
+++ b/Software/ZScaler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Cybersecurity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD0CE2-C9B8-C44B-9A51-2C2DE27826F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A6296-DD04-014C-8CD9-CA646A1BBD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="500" windowWidth="22420" windowHeight="28280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -317,9 +354,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>Zscaler</t>
-  </si>
-  <si>
     <t>Revenue Growth YoY</t>
   </si>
   <si>
@@ -488,9 +522,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -518,21 +549,19 @@
     <t>Share Dilution (3yr)</t>
   </si>
   <si>
-    <t>(3yr diluted)</t>
-  </si>
-  <si>
-    <t>(3 yr diluted)</t>
+    <t>Shares (3y diluted)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -932,14 +961,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -971,6 +995,22 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,24 +1029,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2110,6 +2139,441 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=azbtyc&amp;q=XNAS%3aZS&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ZSCALER, INC. (XNAS:ZS)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>azbtyc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>243.5</v>
+    <v>98.71</v>
+    <v>0.86519999999999997</v>
+    <v>2.44</v>
+    <v>2.4087000000000001E-2</v>
+    <v>-0.31</v>
+    <v>-2.9880000000000002E-3</v>
+    <v>USD</v>
+    <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
+    <v>4975</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
+    <v>103.92</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999767488283</v>
+    <v>0</v>
+    <v>98.71</v>
+    <v>15054759174</v>
+    <v>ZSCALER, INC.</v>
+    <v>ZSCALER, INC.</v>
+    <v>100.66</v>
+    <v>101.3</v>
+    <v>103.74</v>
+    <v>103.43</v>
+    <v>145120100</v>
+    <v>ZS</v>
+    <v>ZSCALER, INC. (XNAS:ZS)</v>
+    <v>2865856</v>
+    <v>3248608</v>
+    <v>2007</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2409,11 +2873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N60" sqref="N60"/>
+      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2426,8 +2890,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2015</v>
@@ -2556,22 +3020,22 @@
       <c r="N3" s="22">
         <v>3976000000</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="Q3" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="R3" s="42" t="s">
         <v>113</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2622,19 +3086,19 @@
         <f t="shared" si="0"/>
         <v>0.24952859836580776</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="43">
         <f>(I4+H4+G4)/3</f>
         <v>0.53520738402986978</v>
       </c>
-      <c r="P4" s="46">
+      <c r="P4" s="43">
         <f>(I20+H20+G20)/3</f>
         <v>1.9422162936945606</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="43">
         <f>(I29+H29+G29)/3</f>
         <v>1.5943240760148953</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="43">
         <f>(I105+H105+G105)/3</f>
         <v>1.6073435736433679</v>
       </c>
@@ -2714,17 +3178,17 @@
       <c r="I6" s="10">
         <v>848664000</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="Q6" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="R6" s="42" t="s">
         <v>117</v>
-      </c>
-      <c r="R6" s="45" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2755,19 +3219,19 @@
       <c r="I7" s="2">
         <v>0.77790000000000004</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="43">
         <f>I7</f>
         <v>0.77790000000000004</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="44">
         <f>I21</f>
         <v>-0.25700000000000001</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="44">
         <f>I30</f>
         <v>-0.35770000000000002</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="44">
         <f>I106/I3</f>
         <v>0.2120471590711181</v>
       </c>
@@ -2803,7 +3267,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -2839,17 +3303,17 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="O9" s="44" t="s">
+      <c r="O9" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="Q9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="R9" s="42" t="s">
         <v>99</v>
-      </c>
-      <c r="R9" s="45" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2880,19 +3344,19 @@
       <c r="I10" s="1">
         <v>151735000</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="43">
         <f>I9</f>
         <v>0.26503511631189813</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="44">
         <f>I13</f>
         <v>0.81301365970451334</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="44">
         <f>I80</f>
         <v>0.3754191316527124</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="44">
         <f>I89</f>
         <v>6.3519184267598949E-2</v>
       </c>
@@ -2954,22 +3418,22 @@
       <c r="I12" s="1">
         <v>886954000</v>
       </c>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="Q12" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="Q12" s="45" t="s">
+      <c r="R12" s="42" t="s">
         <v>121</v>
-      </c>
-      <c r="R12" s="45" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3005,15 +3469,15 @@
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="O13" s="46">
+      <c r="O13" s="43">
         <f>I28/I72</f>
         <v>-0.68075702075702071</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="44">
         <f>I28/I54</f>
         <v>-0.13777767579293704</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="44">
         <f>I22/(I72+I56+I61)</f>
         <v>-0.20223875895447993</v>
       </c>
@@ -3079,20 +3543,17 @@
       <c r="I15" s="1">
         <v>1176093000</v>
       </c>
-      <c r="N15" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="P15" s="45" t="s">
+      <c r="O15" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="Q15" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="R15" s="45" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3127,17 +3588,17 @@
         <f>(I35+H35+G35)/3</f>
         <v>4.4726828389374695E-2</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="45">
         <f>Q101/I3</f>
-        <v>15.224128966969952</v>
-      </c>
-      <c r="Q16" s="48">
+        <v>13.799729018668202</v>
+      </c>
+      <c r="Q16" s="45">
         <f>Q101/I28</f>
-        <v>-42.556082074828709</v>
-      </c>
-      <c r="R16" s="49">
+        <v>-38.574449940811419</v>
+      </c>
+      <c r="R16" s="46">
         <f>Q101/I106</f>
-        <v>71.795958189960743</v>
+        <v>65.078584778586617</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3197,8 +3658,8 @@
       <c r="I18" s="1">
         <v>49466000</v>
       </c>
-      <c r="O18" s="44" t="s">
-        <v>159</v>
+      <c r="O18" s="41" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3229,14 +3690,14 @@
       <c r="I19" s="10">
         <v>-280368000</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="47">
         <f>I40-I56-I61</f>
         <v>685617000</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3506,7 +3967,7 @@
     </row>
     <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3688,7 +4149,7 @@
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="20">
@@ -4998,7 +5459,7 @@
     </row>
     <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:G80" si="12">B79/B3</f>
@@ -5127,10 +5588,10 @@
       <c r="I83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P83" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q83" s="55"/>
+      <c r="P83" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q83" s="62"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5160,10 +5621,10 @@
       <c r="I84" s="1">
         <v>14358000</v>
       </c>
-      <c r="P84" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q84" s="57"/>
+      <c r="P84" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q84" s="64"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5193,10 +5654,10 @@
       <c r="I85" s="1">
         <v>251002000</v>
       </c>
-      <c r="P85" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q85" s="59">
+      <c r="P85" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q85" s="50">
         <f>I17</f>
         <v>53796000</v>
       </c>
@@ -5229,10 +5690,10 @@
       <c r="I86" s="1">
         <v>156273000</v>
       </c>
-      <c r="P86" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q86" s="59">
+      <c r="P86" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q86" s="50">
         <f>I56</f>
         <v>26100000</v>
       </c>
@@ -5265,10 +5726,10 @@
       <c r="I87" s="10">
         <v>321912000</v>
       </c>
-      <c r="P87" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q87" s="59">
+      <c r="P87" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q87" s="50">
         <f>I61</f>
         <v>1019622000</v>
       </c>
@@ -5301,17 +5762,17 @@
       <c r="I88" s="1">
         <v>-69296000</v>
       </c>
-      <c r="P88" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q88" s="61">
+      <c r="P88" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q88" s="52">
         <f>Q85/(Q86+Q87)</f>
         <v>5.1443882791028593E-2</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:G89" si="15">(-1*B88)/B3</f>
@@ -5351,10 +5812,10 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q89" s="59">
+      <c r="P89" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q89" s="50">
         <f>I27</f>
         <v>6648000</v>
       </c>
@@ -5387,10 +5848,10 @@
       <c r="I90" s="1">
         <v>-25287000</v>
       </c>
-      <c r="P90" s="58" t="s">
+      <c r="P90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="59">
+      <c r="Q90" s="50">
         <f>I25</f>
         <v>-383630000</v>
       </c>
@@ -5423,10 +5884,10 @@
       <c r="I91" s="1">
         <v>-844944000</v>
       </c>
-      <c r="P91" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q91" s="61">
+      <c r="P91" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q91" s="52">
         <f>Q89/Q90</f>
         <v>-1.7329197403748404E-2</v>
       </c>
@@ -5459,10 +5920,10 @@
       <c r="I92" s="1">
         <v>1334874000</v>
       </c>
-      <c r="P92" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q92" s="63">
+      <c r="P92" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q92" s="54">
         <f>Q88*(1-Q91)</f>
         <v>5.2335363991129619E-2</v>
       </c>
@@ -5495,10 +5956,10 @@
       <c r="I93" s="1">
         <v>-21284000</v>
       </c>
-      <c r="P93" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q93" s="57"/>
+      <c r="P93" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q93" s="66"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5528,10 +5989,10 @@
       <c r="I94" s="10">
         <v>374063000</v>
       </c>
-      <c r="P94" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q94" s="64">
+      <c r="P94" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q94" s="55">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5563,11 +6024,12 @@
       <c r="I95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P95" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q95" s="67">
-        <v>0.89</v>
+      <c r="P95" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q95" s="57" cm="1">
+        <f t="array" ref="Q95">_FV(A1,"Beta")</f>
+        <v>0.86519999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5598,10 +6060,10 @@
       <c r="I96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P96" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q96" s="64">
+      <c r="P96" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5633,12 +6095,12 @@
       <c r="I97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P97" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q97" s="63">
+      <c r="P97" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q97" s="54">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.9264500000000016E-2</v>
+        <v>7.8196860000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5669,10 +6131,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q98" s="57"/>
+      <c r="P98" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q98" s="66"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5702,10 +6164,10 @@
       <c r="I99" s="1">
         <v>41337000</v>
       </c>
-      <c r="P99" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q99" s="59">
+      <c r="P99" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q99" s="50">
         <f>Q86+Q87</f>
         <v>1045722000</v>
       </c>
@@ -5738,12 +6200,12 @@
       <c r="I100" s="10">
         <v>41337000</v>
       </c>
-      <c r="P100" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q100" s="61">
+      <c r="P100" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q100" s="52">
         <f>Q99/Q103</f>
-        <v>5.9232856561068546E-2</v>
+        <v>6.4949735892905675E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5774,12 +6236,12 @@
       <c r="I101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P101" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q101" s="36">
-        <f>I34*K116</f>
-        <v>16608702600</v>
+      <c r="P101" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q101" s="36" cm="1">
+        <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
+        <v>15054759174</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5810,12 +6272,12 @@
       <c r="I102" s="10">
         <v>737312000</v>
       </c>
-      <c r="P102" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q102" s="61">
+      <c r="P102" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q102" s="52">
         <f>Q101/Q103</f>
-        <v>0.94076714343893142</v>
+        <v>0.93505026410709435</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5846,12 +6308,12 @@
       <c r="I103" s="1">
         <v>275898000</v>
       </c>
-      <c r="P103" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q103" s="65">
+      <c r="P103" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q103" s="56">
         <f>Q99+Q101</f>
-        <v>17654424600</v>
+        <v>16100481174</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5882,14 +6344,14 @@
       <c r="I104" s="11">
         <v>1013210000</v>
       </c>
-      <c r="P104" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q104" s="57"/>
+      <c r="P104" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q104" s="64"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -5927,11 +6389,11 @@
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
       <c r="P105" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.7669410349473098E-2</v>
+        <v>7.6517162664428442E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5983,10 +6445,10 @@
         <v>848683258.11013532</v>
       </c>
       <c r="O106" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="P106" s="27" t="s">
         <v>142</v>
-      </c>
-      <c r="P106" s="27" t="s">
-        <v>143</v>
       </c>
       <c r="Q106" s="28">
         <f>(SUM(J4:N4)/5)</f>
@@ -6009,13 +6471,13 @@
       <c r="M107" s="26"/>
       <c r="N107" s="29">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>16516234637.732016</v>
+        <v>16885641494.451658</v>
       </c>
       <c r="O107" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P107" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="P107" s="31" t="s">
-        <v>145</v>
       </c>
       <c r="Q107" s="32">
         <v>2.5000000000000001E-2</v>
@@ -6040,37 +6502,37 @@
       </c>
       <c r="N108" s="29">
         <f>N107+N106</f>
-        <v>17364917895.842152</v>
+        <v>17734324752.561794</v>
       </c>
       <c r="O108" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P108" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q108" s="34">
         <f>Q105</f>
-        <v>7.7669410349473098E-2</v>
+        <v>7.6517162664428442E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="K109" s="53"/>
+      <c r="J109" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="K109" s="60"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="J110" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K110" s="36">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>13448370191.976673</v>
+        <v>13772339901.541801</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="J111" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K111" s="36">
         <f>I40</f>
@@ -6079,65 +6541,63 @@
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="J112" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K112" s="36">
         <f>Q99</f>
         <v>1045722000</v>
       </c>
     </row>
-    <row r="113" spans="9:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
       <c r="J113" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K113" s="36">
         <f>K110+K111-K112</f>
-        <v>14133987191.976673</v>
-      </c>
-    </row>
-    <row r="114" spans="9:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="I114" t="s">
-        <v>161</v>
-      </c>
+        <v>14457956901.541801</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
       <c r="J114" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="K114" s="51">
+        <v>159</v>
+      </c>
+      <c r="K114" s="48">
         <f>I34*(1+(5*O16))</f>
         <v>172403932.42960474</v>
       </c>
     </row>
-    <row r="115" spans="9:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="38" t="s">
+    <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J115" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K115" s="67">
+        <f>K113/K114</f>
+        <v>83.860946196486637</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J116" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K116" s="58" cm="1">
+        <f t="array" ref="K116">_FV(A1,"Price")</f>
+        <v>103.74</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J117" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="K115" s="39">
-        <f>K113/K114</f>
-        <v>81.981814409876094</v>
-      </c>
-    </row>
-    <row r="116" spans="9:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="37" t="s">
+      <c r="K117" s="39">
+        <f>K115/K116-1</f>
+        <v>-0.19162380762977982</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J118" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="K116" s="40">
-        <v>117.88</v>
-      </c>
-    </row>
-    <row r="117" spans="9:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="K117" s="42">
-        <f>K115/K116-1</f>
-        <v>-0.30453160493827536</v>
-      </c>
-    </row>
-    <row r="118" spans="9:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="K118" s="43" t="str">
+      <c r="K118" s="40" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
